--- a/src/main/resources/static/excelFile/组装材料模板.xlsx
+++ b/src/main/resources/static/excelFile/组装材料模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0994374-1148-4D49-954C-3A0E97EF1ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDDE178-225F-4A76-8200-8282B88C58C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6384" yWindow="5592" windowWidth="17280" windowHeight="10236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="552" yWindow="444" windowWidth="17280" windowHeight="10236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
@@ -37,23 +37,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>供应商*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装材料导入清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料规格*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>基数*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>组装材料导入清单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料规格*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -474,16 +474,15 @@
     <col min="1" max="1" width="30.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="6" width="14.88671875" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -501,22 +500,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/excelFile/组装材料模板.xlsx
+++ b/src/main/resources/static/excelFile/组装材料模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDDE178-225F-4A76-8200-8282B88C58C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6951682-94DF-4C8F-B843-3DF16B1DAE2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="444" windowWidth="17280" windowHeight="10236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
@@ -20,40 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>零件名称*</t>
-  </si>
-  <si>
-    <t>材料名称*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用量*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>组装材料导入清单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>材料规格*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基数*</t>
+    <t>id(不要编辑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,64 +468,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excelFile/组装材料模板.xlsx
+++ b/src/main/resources/static/excelFile/组装材料模板.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6951682-94DF-4C8F-B843-3DF16B1DAE2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA3952-C0CC-4182-8064-67C8A1B10D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5508" yWindow="2664" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
@@ -30,35 +30,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>零件名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>材料规格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>零件名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>材料名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -93,8 +145,17 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -471,7 +532,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -503,28 +564,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/excelFile/组装材料模板.xlsx
+++ b/src/main/resources/static/excelFile/组装材料模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA3952-C0CC-4182-8064-67C8A1B10D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F5A6D-DA98-48C6-8DF8-4F36CB4939B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="2664" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>组装材料导入清单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,23 +82,6 @@
   <si>
     <r>
       <t>用量</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>基数</t>
     </r>
     <r>
       <rPr>
@@ -529,25 +512,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,10 +539,9 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -579,18 +561,15 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excelFile/组装材料模板.xlsx
+++ b/src/main/resources/static/excelFile/组装材料模板.xlsx
@@ -1,52 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\huayu_mes\src\main\resources\static\excelFile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F5A6D-DA98-48C6-8DF8-4F36CB4939B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19170" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>组装材料导入清单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>id(不要编辑)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>零件名称</t>
     </r>
     <r>
@@ -55,15 +37,19 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>材料名称</t>
     </r>
     <r>
@@ -72,16 +58,17 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料规格</t>
   </si>
   <si>
     <r>
-      <t>用量</t>
+      <t>材料用量</t>
     </r>
     <r>
       <rPr>
@@ -89,37 +76,30 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料用量单位</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -128,8 +108,164 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,11 +273,10 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,28 +289,199 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -203,7 +509,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -215,40 +523,323 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -506,73 +1097,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excelFile/组装材料模板.xlsx
+++ b/src/main/resources/static/excelFile/组装材料模板.xlsx
@@ -4,22 +4,37 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19170" windowHeight="6795"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>组装材料导入清单</t>
   </si>
   <si>
     <t>id(不要编辑)</t>
+  </si>
+  <si>
+    <r>
+      <t>组件名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <r>
@@ -68,6 +83,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>材料用量</t>
     </r>
     <r>
@@ -90,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -118,22 +139,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,9 +154,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +193,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -185,9 +229,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,22 +254,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,16 +267,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,29 +284,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,31 +312,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,55 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,114 +486,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,17 +547,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,25 +599,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,162 +634,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,54 +1108,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
